--- a/results/mp/logistic/corona/confidence/210/stop-words-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/stop-words-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="99">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,252 +40,252 @@
     <t>name</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>kill</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
     <t>crisis</t>
   </si>
   <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
+    <t>die</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
+    <t>panic</t>
+  </si>
+  <si>
     <t>fears</t>
   </si>
   <si>
+    <t>problem</t>
+  </si>
+  <si>
     <t>drop</t>
   </si>
   <si>
-    <t>panic</t>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>low</t>
   </si>
   <si>
     <t>cut</t>
   </si>
   <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>lower</t>
   </si>
   <si>
+    <t>risk</t>
+  </si>
+  <si>
     <t>fight</t>
   </si>
   <si>
+    <t>stop</t>
+  </si>
+  <si>
     <t>empty</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
     <t>oil</t>
   </si>
   <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>prices</t>
   </si>
   <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
     <t>corona</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>free</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>hand</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
-    <t>friend</t>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>support</t>
   </si>
   <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>special</t>
+    <t>fresh</t>
   </si>
   <si>
     <t>safe</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
     <t>friends</t>
   </si>
   <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>confidence</t>
+    <t>nice</t>
   </si>
   <si>
     <t>join</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>true</t>
+    <t>like</t>
+  </si>
+  <si>
+    <t>super</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>giving</t>
   </si>
   <si>
     <t>save</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>gt</t>
+    <t>healthy</t>
   </si>
   <si>
     <t>ensure</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
+    <t>ready</t>
   </si>
   <si>
     <t>god</t>
   </si>
   <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
     <t>care</t>
   </si>
   <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>growth</t>
+    <t>important</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
     <t>credit</t>
   </si>
   <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
     <t>data</t>
   </si>
   <si>
@@ -298,10 +298,7 @@
     <t>check</t>
   </si>
   <si>
-    <t>keep</t>
-  </si>
-  <si>
-    <t>day</t>
+    <t>need</t>
   </si>
   <si>
     <t>shop</t>
@@ -314,15 +311,6 @@
   </si>
   <si>
     <t>grocery</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>food</t>
   </si>
 </sst>
 </file>
@@ -680,7 +668,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q72"/>
+  <dimension ref="A1:Q65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -688,10 +676,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="J1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -749,13 +737,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8421052631578947</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="C3">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D3">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -767,19 +755,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K3">
-        <v>0.9347826086956522</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="L3">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="M3">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -791,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -799,13 +787,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7586206896551724</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C4">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -817,10 +805,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K4">
         <v>0.9322033898305084</v>
@@ -849,13 +837,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.75</v>
+        <v>0.7465753424657534</v>
       </c>
       <c r="C5">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D5">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -867,10 +855,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K5">
         <v>0.925</v>
@@ -899,7 +887,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6111111111111112</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C6">
         <v>22</v>
@@ -917,19 +905,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K6">
-        <v>0.9230769230769231</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L6">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="M6">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -941,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -949,13 +937,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5789473684210527</v>
+        <v>0.72</v>
       </c>
       <c r="C7">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D7">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -967,19 +955,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K7">
-        <v>0.8947368421052632</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L7">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="M7">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -991,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -999,13 +987,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5769230769230769</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C8">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D8">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1017,19 +1005,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K8">
-        <v>0.8888888888888888</v>
+        <v>0.8511749347258486</v>
       </c>
       <c r="L8">
-        <v>16</v>
+        <v>326</v>
       </c>
       <c r="M8">
-        <v>16</v>
+        <v>326</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1041,7 +1029,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1049,13 +1037,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5652173913043478</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C9">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D9">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1070,16 +1058,16 @@
         <v>10</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K9">
-        <v>0.875</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L9">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="M9">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1091,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1099,38 +1087,38 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5294117647058824</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C10">
+        <v>22</v>
+      </c>
+      <c r="D10">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>14</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="L10">
         <v>18</v>
       </c>
-      <c r="D10">
+      <c r="M10">
         <v>18</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>16</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K10">
-        <v>0.875</v>
-      </c>
-      <c r="L10">
-        <v>14</v>
-      </c>
-      <c r="M10">
-        <v>14</v>
-      </c>
       <c r="N10">
         <v>1</v>
       </c>
@@ -1141,7 +1129,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1149,13 +1137,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.4864864864864865</v>
+        <v>0.5945945945945946</v>
       </c>
       <c r="C11">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D11">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1167,19 +1155,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K11">
-        <v>0.8679245283018868</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L11">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="M11">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1191,7 +1179,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1199,13 +1187,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4497354497354497</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="C12">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="D12">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1217,19 +1205,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K12">
-        <v>0.8666666666666667</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L12">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="M12">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1241,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1249,13 +1237,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4313725490196079</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="C13">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="D13">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1267,19 +1255,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K13">
-        <v>0.8620689655172413</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L13">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M13">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1291,7 +1279,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1299,13 +1287,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.423728813559322</v>
+        <v>0.4534883720930232</v>
       </c>
       <c r="C14">
-        <v>25</v>
+        <v>234</v>
       </c>
       <c r="D14">
-        <v>25</v>
+        <v>234</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1317,19 +1305,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>34</v>
+        <v>282</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K14">
-        <v>0.8481675392670157</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L14">
-        <v>324</v>
+        <v>29</v>
       </c>
       <c r="M14">
-        <v>325</v>
+        <v>29</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1338,10 +1326,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>58</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1349,13 +1337,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4147286821705427</v>
+        <v>0.4509803921568628</v>
       </c>
       <c r="C15">
-        <v>214</v>
+        <v>23</v>
       </c>
       <c r="D15">
-        <v>214</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1367,19 +1355,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>302</v>
+        <v>28</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K15">
-        <v>0.8292682926829268</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L15">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="M15">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1391,7 +1379,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1399,13 +1387,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3636363636363636</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="C16">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D16">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1417,19 +1405,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K16">
-        <v>0.828125</v>
+        <v>0.796875</v>
       </c>
       <c r="L16">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="M16">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1441,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1449,13 +1437,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.3636363636363636</v>
+        <v>0.4067796610169492</v>
       </c>
       <c r="C17">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D17">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1470,16 +1458,16 @@
         <v>35</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K17">
-        <v>0.81875</v>
+        <v>0.7924528301886793</v>
       </c>
       <c r="L17">
-        <v>131</v>
+        <v>84</v>
       </c>
       <c r="M17">
-        <v>131</v>
+        <v>84</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1491,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1499,13 +1487,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3221476510067114</v>
+        <v>0.3272727272727273</v>
       </c>
       <c r="C18">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="D18">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1517,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K18">
-        <v>0.8181818181818182</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L18">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M18">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1549,13 +1537,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.32</v>
+        <v>0.3066666666666666</v>
       </c>
       <c r="C19">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D19">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1567,19 +1555,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K19">
-        <v>0.8055555555555556</v>
+        <v>0.775</v>
       </c>
       <c r="L19">
-        <v>29</v>
+        <v>124</v>
       </c>
       <c r="M19">
-        <v>29</v>
+        <v>124</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1591,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1599,13 +1587,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.2321428571428572</v>
+        <v>0.2953020134228188</v>
       </c>
       <c r="C20">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="D20">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1617,19 +1605,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>43</v>
+        <v>105</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K20">
-        <v>0.8028169014084507</v>
+        <v>0.7708333333333334</v>
       </c>
       <c r="L20">
-        <v>114</v>
+        <v>37</v>
       </c>
       <c r="M20">
-        <v>114</v>
+        <v>37</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1641,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1649,13 +1637,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.1875</v>
+        <v>0.2909090909090909</v>
       </c>
       <c r="C21">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D21">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1667,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K21">
-        <v>0.7878787878787878</v>
+        <v>0.7676056338028169</v>
       </c>
       <c r="L21">
-        <v>26</v>
+        <v>109</v>
       </c>
       <c r="M21">
-        <v>26</v>
+        <v>109</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1691,7 +1679,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1699,13 +1687,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.1666666666666667</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C22">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D22">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1717,19 +1705,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K22">
-        <v>0.7857142857142857</v>
+        <v>0.75</v>
       </c>
       <c r="L22">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M22">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1741,7 +1729,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1749,13 +1737,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.1547619047619048</v>
+        <v>0.1948051948051948</v>
       </c>
       <c r="C23">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="D23">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1767,19 +1755,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>213</v>
+        <v>62</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K23">
-        <v>0.723404255319149</v>
+        <v>0.74</v>
       </c>
       <c r="L23">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M23">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1799,13 +1787,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.08579088471849866</v>
+        <v>0.1625</v>
       </c>
       <c r="C24">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="D24">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1817,19 +1805,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>341</v>
+        <v>67</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K24">
-        <v>0.7222222222222222</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L24">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="M24">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1841,7 +1829,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1849,13 +1837,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.05</v>
+        <v>0.1587301587301587</v>
       </c>
       <c r="C25">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D25">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1867,19 +1855,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>285</v>
+        <v>212</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K25">
-        <v>0.7209302325581395</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L25">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="M25">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1891,7 +1879,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1899,37 +1887,37 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01724137931034483</v>
+        <v>0.1444444444444444</v>
       </c>
       <c r="C26">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D26">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E26">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>1140</v>
+        <v>77</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K26">
-        <v>0.72</v>
+        <v>0.7</v>
       </c>
       <c r="L26">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="M26">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1941,7 +1929,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1949,37 +1937,37 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.01586787564766839</v>
+        <v>0.08870967741935484</v>
       </c>
       <c r="C27">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D27">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="E27">
-        <v>0.28</v>
+        <v>0.03</v>
       </c>
       <c r="F27">
-        <v>0.72</v>
+        <v>0.97</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
       </c>
       <c r="H27">
-        <v>3039</v>
+        <v>339</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K27">
-        <v>0.7083333333333334</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L27">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M27">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1991,7 +1979,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1999,37 +1987,37 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.01231060606060606</v>
+        <v>0.06</v>
       </c>
       <c r="C28">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D28">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="E28">
-        <v>0.54</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>0.46</v>
+        <v>1</v>
       </c>
       <c r="G28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>2086</v>
+        <v>282</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K28">
-        <v>0.7037037037037037</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L28">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="M28">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2041,7 +2029,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2049,116 +2037,188 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.009545020680878142</v>
+        <v>0.02039494982194885</v>
       </c>
       <c r="C29">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="D29">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E29">
+        <v>0.22</v>
+      </c>
+      <c r="F29">
+        <v>0.78</v>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>3026</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="L29">
+        <v>18</v>
+      </c>
+      <c r="M29">
+        <v>18</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30">
+        <v>0.01276595744680851</v>
+      </c>
+      <c r="C30">
+        <v>27</v>
+      </c>
+      <c r="D30">
+        <v>55</v>
+      </c>
+      <c r="E30">
+        <v>0.51</v>
+      </c>
+      <c r="F30">
+        <v>0.49</v>
+      </c>
+      <c r="G30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>2088</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K30">
+        <v>0.6511627906976745</v>
+      </c>
+      <c r="L30">
+        <v>28</v>
+      </c>
+      <c r="M30">
+        <v>28</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31">
+        <v>0.01212121212121212</v>
+      </c>
+      <c r="C31">
+        <v>14</v>
+      </c>
+      <c r="D31">
+        <v>20</v>
+      </c>
+      <c r="E31">
+        <v>0.3</v>
+      </c>
+      <c r="F31">
+        <v>0.7</v>
+      </c>
+      <c r="G31" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>1141</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K31">
+        <v>0.6352941176470588</v>
+      </c>
+      <c r="L31">
+        <v>216</v>
+      </c>
+      <c r="M31">
+        <v>216</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32">
+        <v>0.007606973058637084</v>
+      </c>
+      <c r="C32">
+        <v>24</v>
+      </c>
+      <c r="D32">
+        <v>70</v>
+      </c>
+      <c r="E32">
         <v>0.66</v>
       </c>
-      <c r="F29">
+      <c r="F32">
         <v>0.34</v>
       </c>
-      <c r="G29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29">
-        <v>3113</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K29">
-        <v>0.6825396825396826</v>
-      </c>
-      <c r="L29">
-        <v>43</v>
-      </c>
-      <c r="M29">
-        <v>43</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="J30" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K30">
-        <v>0.6818181818181818</v>
-      </c>
-      <c r="L30">
+      <c r="G32" t="b">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>3131</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K32">
+        <v>0.625</v>
+      </c>
+      <c r="L32">
         <v>15</v>
       </c>
-      <c r="M30">
+      <c r="M32">
         <v>15</v>
       </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="J31" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K31">
-        <v>0.6571428571428571</v>
-      </c>
-      <c r="L31">
-        <v>23</v>
-      </c>
-      <c r="M31">
-        <v>23</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="J32" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K32">
-        <v>0.6323529411764706</v>
-      </c>
-      <c r="L32">
-        <v>215</v>
-      </c>
-      <c r="M32">
-        <v>215</v>
-      </c>
       <c r="N32">
         <v>1</v>
       </c>
@@ -2169,21 +2229,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>125</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K33">
-        <v>0.625</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="L33">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="M33">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2195,73 +2255,73 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K34">
-        <v>0.625</v>
+        <v>0.6156462585034014</v>
       </c>
       <c r="L34">
-        <v>15</v>
+        <v>181</v>
       </c>
       <c r="M34">
-        <v>15</v>
+        <v>182</v>
       </c>
       <c r="N34">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34">
-        <v>9</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K35">
-        <v>0.6245733788395904</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L35">
-        <v>183</v>
+        <v>40</v>
       </c>
       <c r="M35">
-        <v>185</v>
+        <v>40</v>
       </c>
       <c r="N35">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>110</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K36">
-        <v>0.602510460251046</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="L36">
-        <v>144</v>
+        <v>14</v>
       </c>
       <c r="M36">
-        <v>144</v>
+        <v>14</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2273,21 +2333,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>95</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K37">
-        <v>0.5957446808510638</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="L37">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="M37">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2299,21 +2359,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K38">
-        <v>0.5833333333333334</v>
+        <v>0.606694560669456</v>
       </c>
       <c r="L38">
-        <v>14</v>
+        <v>145</v>
       </c>
       <c r="M38">
-        <v>14</v>
+        <v>145</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2325,21 +2385,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>10</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K39">
-        <v>0.5730337078651685</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="L39">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="M39">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2351,21 +2411,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>38</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K40">
-        <v>0.5714285714285714</v>
+        <v>0.6</v>
       </c>
       <c r="L40">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="M40">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2377,15 +2437,15 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K41">
-        <v>0.5714285714285714</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="L41">
         <v>16</v>
@@ -2403,21 +2463,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K42">
-        <v>0.5692307692307692</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L42">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="M42">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2429,21 +2489,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K43">
-        <v>0.5652173913043478</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L43">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M43">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2455,21 +2515,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K44">
-        <v>0.5454545454545454</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L44">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M44">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2481,21 +2541,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K45">
-        <v>0.5357142857142857</v>
+        <v>0.5285714285714286</v>
       </c>
       <c r="L45">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="M45">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2507,21 +2567,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K46">
-        <v>0.5294117647058824</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="L46">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="M46">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2533,21 +2593,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K47">
-        <v>0.5185185185185185</v>
+        <v>0.4943820224719101</v>
       </c>
       <c r="L47">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="M47">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2559,21 +2619,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>13</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K48">
-        <v>0.5185185185185185</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="L48">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="M48">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2585,21 +2645,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K49">
-        <v>0.5</v>
+        <v>0.4509803921568628</v>
       </c>
       <c r="L49">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M49">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2611,21 +2671,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K50">
-        <v>0.4888888888888889</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="L50">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="M50">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2637,21 +2697,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K51">
-        <v>0.4523809523809524</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="L51">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M51">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2663,21 +2723,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>23</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K52">
-        <v>0.4516129032258064</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="L52">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M52">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2689,21 +2749,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>17</v>
+        <v>39</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K53">
-        <v>0.4117647058823529</v>
+        <v>0.3287671232876712</v>
       </c>
       <c r="L53">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="M53">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2715,21 +2775,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>20</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K54">
-        <v>0.3835616438356164</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="L54">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="M54">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2741,21 +2801,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K55">
-        <v>0.3728813559322034</v>
+        <v>0.296875</v>
       </c>
       <c r="L55">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M55">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2767,21 +2827,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K56">
-        <v>0.3717948717948718</v>
+        <v>0.2295081967213115</v>
       </c>
       <c r="L56">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="M56">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2793,47 +2853,47 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K57">
-        <v>0.3157894736842105</v>
+        <v>0.1682242990654206</v>
       </c>
       <c r="L57">
         <v>18</v>
       </c>
       <c r="M57">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N57">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="O57">
-        <v>0</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q57">
-        <v>39</v>
+        <v>89</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="K58">
-        <v>0.28125</v>
+        <v>0.0726643598615917</v>
       </c>
       <c r="L58">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M58">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2845,15 +2905,15 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>46</v>
+        <v>268</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="K59">
-        <v>0.2131147540983606</v>
+        <v>0.07027027027027027</v>
       </c>
       <c r="L59">
         <v>13</v>
@@ -2871,47 +2931,47 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>48</v>
+        <v>172</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="K60">
-        <v>0.1944444444444444</v>
+        <v>0.0487012987012987</v>
       </c>
       <c r="L60">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M60">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="N60">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O60">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60">
-        <v>87</v>
+        <v>293</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="K61">
-        <v>0.1532258064516129</v>
+        <v>0.04086538461538462</v>
       </c>
       <c r="L61">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M61">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2923,21 +2983,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>105</v>
+        <v>399</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="K62">
-        <v>0.1118881118881119</v>
+        <v>0.02552719200887902</v>
       </c>
       <c r="L62">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="M62">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2949,267 +3009,85 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>127</v>
+        <v>878</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="K63">
-        <v>0.08648648648648649</v>
+        <v>0.01447906830343091</v>
       </c>
       <c r="L63">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="M63">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="N63">
-        <v>1</v>
+        <v>0.66</v>
       </c>
       <c r="O63">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="P63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q63">
-        <v>169</v>
+        <v>3131</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="K64">
-        <v>0.06168831168831169</v>
+        <v>0.01323251417769376</v>
       </c>
       <c r="L64">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M64">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="N64">
-        <v>1</v>
+        <v>0.51</v>
       </c>
       <c r="O64">
-        <v>0</v>
+        <v>0.49</v>
       </c>
       <c r="P64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q64">
-        <v>289</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="K65">
-        <v>0.03125</v>
+        <v>0.005913272010512484</v>
       </c>
       <c r="L65">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M65">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="N65">
-        <v>1</v>
+        <v>0.22</v>
       </c>
       <c r="O65">
-        <v>0</v>
+        <v>0.78</v>
       </c>
       <c r="P65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q65">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="66" spans="10:17">
-      <c r="J66" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="K66">
-        <v>0.02555555555555556</v>
-      </c>
-      <c r="L66">
-        <v>23</v>
-      </c>
-      <c r="M66">
-        <v>24</v>
-      </c>
-      <c r="N66">
-        <v>0.96</v>
-      </c>
-      <c r="O66">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="P66" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q66">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="67" spans="10:17">
-      <c r="J67" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="K67">
-        <v>0.02018633540372671</v>
-      </c>
-      <c r="L67">
-        <v>13</v>
-      </c>
-      <c r="M67">
-        <v>19</v>
-      </c>
-      <c r="N67">
-        <v>0.68</v>
-      </c>
-      <c r="O67">
-        <v>0.32</v>
-      </c>
-      <c r="P67" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q67">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="68" spans="10:17">
-      <c r="J68" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K68">
-        <v>0.01829076001261432</v>
-      </c>
-      <c r="L68">
-        <v>58</v>
-      </c>
-      <c r="M68">
-        <v>88</v>
-      </c>
-      <c r="N68">
-        <v>0.66</v>
-      </c>
-      <c r="O68">
-        <v>0.34</v>
-      </c>
-      <c r="P68" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q68">
-        <v>3113</v>
-      </c>
-    </row>
-    <row r="69" spans="10:17">
-      <c r="J69" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="K69">
-        <v>0.0179372197309417</v>
-      </c>
-      <c r="L69">
-        <v>16</v>
-      </c>
-      <c r="M69">
-        <v>18</v>
-      </c>
-      <c r="N69">
-        <v>0.89</v>
-      </c>
-      <c r="O69">
-        <v>0.11</v>
-      </c>
-      <c r="P69" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q69">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="70" spans="10:17">
-      <c r="J70" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K70">
-        <v>0.01464336324988191</v>
-      </c>
-      <c r="L70">
-        <v>31</v>
-      </c>
-      <c r="M70">
-        <v>57</v>
-      </c>
-      <c r="N70">
-        <v>0.54</v>
-      </c>
-      <c r="O70">
-        <v>0.46</v>
-      </c>
-      <c r="P70" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q70">
-        <v>2086</v>
-      </c>
-    </row>
-    <row r="71" spans="10:17">
-      <c r="J71" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="K71">
-        <v>0.01450777202072539</v>
-      </c>
-      <c r="L71">
-        <v>14</v>
-      </c>
-      <c r="M71">
-        <v>17</v>
-      </c>
-      <c r="N71">
-        <v>0.82</v>
-      </c>
-      <c r="O71">
-        <v>0.18</v>
-      </c>
-      <c r="P71" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q71">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="72" spans="10:17">
-      <c r="J72" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K72">
-        <v>0.006213211249182472</v>
-      </c>
-      <c r="L72">
-        <v>19</v>
-      </c>
-      <c r="M72">
-        <v>68</v>
-      </c>
-      <c r="N72">
-        <v>0.28</v>
-      </c>
-      <c r="O72">
-        <v>0.72</v>
-      </c>
-      <c r="P72" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q72">
-        <v>3039</v>
+        <v>3026</v>
       </c>
     </row>
   </sheetData>
